--- a/transaction_log.xlsx
+++ b/transaction_log.xlsx
@@ -305,10 +305,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="A1:G2"/>
+      <selection pane="topLeft" activeCell="P4" activeCellId="0" sqref="A1:P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -318,6 +318,7 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
